--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.740000000000004</v>
+        <v>8.839399999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.208</v>
+        <v>-22.19429999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6.495800000000003</v>
+        <v>6.422100000000004</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.12280000000002</v>
+        <v>-22.0797</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.79549999999998</v>
+        <v>-20.58489999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.896299999999998</v>
+        <v>9.059199999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.543200000000001</v>
+        <v>5.364400000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.726600000000006</v>
+        <v>4.954400000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.96749999999999</v>
+        <v>-21.90629999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.535200000000007</v>
+        <v>9.491300000000006</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.558300000000004</v>
+        <v>8.633800000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.733500000000003</v>
+        <v>5.965900000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.346299999999997</v>
+        <v>5.488899999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.7171</v>
+        <v>5.867899999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.322999999999999</v>
+        <v>5.324199999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65619999999999</v>
+        <v>-21.65129999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.69039999999998</v>
+        <v>-19.66229999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.522799999999995</v>
+        <v>9.678899999999993</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.63070000000001</v>
+        <v>-21.7028</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.4635</v>
+        <v>5.7279</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
